--- a/SexRatio/Sex_ratio_R_output_summary.xlsx
+++ b/SexRatio/Sex_ratio_R_output_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwcc-my.sharepoint.com/personal/erica_williams_myfwc_com/Documents/Oysters/Repro_Sex Ratio/Analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\SexRatio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{676C2D66-2E6D-4719-B526-312493ADA0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{616C63DC-438B-42C1-A1AE-25E0F853D0CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09C301-B541-4292-96F6-1BBE9EB51E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{139A1797-C4FD-4EB1-A9D4-15748DF238C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{139A1797-C4FD-4EB1-A9D4-15748DF238C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Summary of comparisons between LXN and LXS</t>
-  </si>
-  <si>
-    <t>Review of data</t>
   </si>
   <si>
     <t>MeanRatio</t>
@@ -396,9 +393,6 @@
     <t>Mean ratio of Males and Females (2020-2024)</t>
   </si>
   <si>
-    <t>Mean ratio of Males and Females (all data)</t>
-  </si>
-  <si>
     <t>X-squared = 0.021538</t>
   </si>
   <si>
@@ -502,6 +496,12 @@
   <si>
     <t>* through May 2025 dissections (not repro reads)</t>
   </si>
+  <si>
+    <t>Mean ratio of Males and Females (all data through April 2025)</t>
+  </si>
+  <si>
+    <t>Year and month comparisons</t>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +602,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1491,13 +1491,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D658931-877A-4648-AF30-2533163DE82B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.88671875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.77734375" style="9" bestFit="1" customWidth="1"/>
@@ -1523,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1546,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -1554,10 +1556,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -1566,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1577,30 +1579,30 @@
         <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -20396,7 +20398,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -20405,31 +20407,31 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="AD1" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>17</v>
@@ -20440,7 +20442,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -20449,7 +20451,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
@@ -20470,7 +20472,7 @@
         <v>0.5</v>
       </c>
       <c r="AD2" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="2">
         <v>2</v>
@@ -20484,7 +20486,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -20493,7 +20495,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L3" s="2">
         <v>3</v>
@@ -20514,7 +20516,7 @@
         <v>0.1875</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE3" s="2">
         <v>3</v>
@@ -20528,7 +20530,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -20537,7 +20539,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
@@ -20558,7 +20560,7 @@
         <v>0.15</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AE4" s="2">
         <v>3</v>
@@ -20572,16 +20574,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="L5" s="2">
         <v>14</v>
@@ -20602,7 +20604,7 @@
         <v>0.27450980000000003</v>
       </c>
       <c r="AD5" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE5" s="2">
         <v>14</v>
@@ -20616,7 +20618,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -20625,7 +20627,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L6" s="2">
         <v>49</v>
@@ -20646,7 +20648,7 @@
         <v>0.52127659999999998</v>
       </c>
       <c r="AD6" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE6" s="2">
         <v>49</v>
@@ -20660,7 +20662,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -20669,7 +20671,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L7" s="2">
         <v>134</v>
@@ -20690,7 +20692,7 @@
         <v>0.67336682999999997</v>
       </c>
       <c r="AD7" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE7" s="2">
         <v>134</v>
@@ -20704,7 +20706,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>119</v>
@@ -20713,7 +20715,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L8" s="2">
         <v>188</v>
@@ -20734,7 +20736,7 @@
         <v>0.69629629999999998</v>
       </c>
       <c r="AD8" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AE8" s="2">
         <v>188</v>
@@ -20748,7 +20750,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>254</v>
@@ -20757,7 +20759,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L9" s="2">
         <v>206</v>
@@ -20778,7 +20780,7 @@
         <v>0.74100719000000004</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AE9" s="2">
         <v>206</v>
@@ -20792,7 +20794,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10">
         <v>340</v>
@@ -20801,7 +20803,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L10" s="2">
         <v>183</v>
@@ -20822,7 +20824,7 @@
         <v>0.81696429000000004</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AE10" s="2">
         <v>183</v>
@@ -20836,7 +20838,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11">
         <v>334</v>
@@ -20845,7 +20847,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L11" s="2">
         <v>100</v>
@@ -20866,7 +20868,7 @@
         <v>0.80645160999999999</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AE11" s="2">
         <v>100</v>
@@ -20880,7 +20882,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>277</v>
@@ -20889,7 +20891,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L12" s="2">
         <v>66</v>
@@ -20910,7 +20912,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE12" s="2">
         <v>66</v>
@@ -20924,7 +20926,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13">
         <v>161</v>
@@ -20933,7 +20935,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L13" s="2">
         <v>44</v>
@@ -20954,7 +20956,7 @@
         <v>0.88</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE13" s="2">
         <v>44</v>
@@ -20968,7 +20970,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14">
         <v>113</v>
@@ -20977,7 +20979,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L14" s="2">
         <v>16</v>
@@ -20998,7 +21000,7 @@
         <v>0.72727273000000003</v>
       </c>
       <c r="AD14" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AE14" s="2">
         <v>16</v>
@@ -21012,7 +21014,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15">
         <v>60</v>
@@ -21021,7 +21023,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L15" s="2">
         <v>11</v>
@@ -21042,7 +21044,7 @@
         <v>0.91666667000000002</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE15" s="2">
         <v>11</v>
@@ -21056,7 +21058,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16">
         <v>25</v>
@@ -21065,7 +21067,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L16" s="2">
         <v>2</v>
@@ -21086,7 +21088,7 @@
         <v>0.66666667000000002</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE16" s="2">
         <v>2</v>
@@ -21100,7 +21102,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -21109,7 +21111,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L17" s="2">
         <v>5</v>
@@ -21130,7 +21132,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE17" s="2">
         <v>5</v>
@@ -21144,7 +21146,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -21153,7 +21155,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -21174,7 +21176,7 @@
         <v>1</v>
       </c>
       <c r="AD18" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AE18" s="2">
         <v>1</v>
@@ -21188,7 +21190,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -21197,7 +21199,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L19" s="2">
         <v>2</v>
@@ -21220,7 +21222,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -21229,7 +21231,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L20" s="2">
         <v>13</v>
@@ -21252,13 +21254,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L21" s="2">
         <v>17</v>
@@ -21284,7 +21286,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22" s="2">
         <v>37</v>
@@ -21310,7 +21312,7 @@
         <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L23" s="2">
         <v>45</v>
@@ -21336,7 +21338,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L24" s="2">
         <v>65</v>
@@ -21362,7 +21364,7 @@
         <v>22</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L25" s="2">
         <v>82</v>
@@ -21388,7 +21390,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L26" s="2">
         <v>72</v>
@@ -21414,7 +21416,7 @@
         <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L27" s="2">
         <v>41</v>
@@ -21440,7 +21442,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L28" s="2">
         <v>24</v>
@@ -21466,7 +21468,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L29" s="2">
         <v>14</v>
@@ -21492,7 +21494,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L30" s="2">
         <v>6</v>
@@ -21518,7 +21520,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L31" s="2">
         <v>6</v>
@@ -21544,7 +21546,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -21570,7 +21572,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -21596,7 +21598,7 @@
         <v>9</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L34" s="2">
         <v>3</v>
@@ -21622,7 +21624,7 @@
         <v>9</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L35" s="2">
         <v>5</v>
@@ -21648,7 +21650,7 @@
         <v>9</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L36" s="2">
         <v>2</v>
@@ -21674,7 +21676,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -21700,7 +21702,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L38" s="2">
         <v>8</v>
@@ -21726,7 +21728,7 @@
         <v>9</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L39" s="2">
         <v>15</v>
@@ -21752,7 +21754,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L40" s="2">
         <v>43</v>
@@ -21778,7 +21780,7 @@
         <v>9</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L41" s="2">
         <v>53</v>
@@ -21804,7 +21806,7 @@
         <v>9</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L42" s="2">
         <v>46</v>
@@ -21830,7 +21832,7 @@
         <v>9</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L43" s="2">
         <v>35</v>
@@ -21856,7 +21858,7 @@
         <v>9</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L44" s="2">
         <v>26</v>
@@ -21882,7 +21884,7 @@
         <v>9</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L45" s="2">
         <v>26</v>
@@ -21908,7 +21910,7 @@
         <v>9</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L46" s="2">
         <v>8</v>
@@ -21934,7 +21936,7 @@
         <v>9</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L47" s="2">
         <v>2</v>
@@ -21960,7 +21962,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L48" s="2">
         <v>1</v>
@@ -21986,7 +21988,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L49" s="2">
         <v>1</v>
@@ -22018,7 +22020,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22031,10 +22033,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -22045,7 +22047,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>13</v>
@@ -22054,7 +22056,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -22139,10 +22141,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -22207,42 +22209,42 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -22255,7 +22257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C56C19C-A70B-4BA9-B6F1-6481029F43E3}">
   <dimension ref="A1:AE119"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -22269,13 +22271,13 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -22286,7 +22288,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>12</v>
@@ -22295,16 +22297,16 @@
         <v>15</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -22327,7 +22329,7 @@
         <v>0.86666670000000001</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>21</v>
@@ -22356,7 +22358,7 @@
         <v>0.13333329999999999</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD5" s="2" t="s">
         <v>22</v>
@@ -22385,7 +22387,7 @@
         <v>0.79482759999999997</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>21</v>
@@ -22414,7 +22416,7 @@
         <v>0.2051724</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>22</v>
@@ -22443,7 +22445,7 @@
         <v>0.62055559999999998</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>21</v>
@@ -22472,7 +22474,7 @@
         <v>0.37944440000000002</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>22</v>
@@ -22501,7 +22503,7 @@
         <v>0.69583329999999999</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>21</v>
@@ -22530,7 +22532,7 @@
         <v>0.30416670000000001</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>22</v>
@@ -22559,7 +22561,7 @@
         <v>0.65277779999999996</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>21</v>
@@ -22588,7 +22590,7 @@
         <v>0.34722219999999998</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>22</v>
@@ -22617,7 +22619,7 @@
         <v>0.6822222</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>21</v>
@@ -22646,7 +22648,7 @@
         <v>0.3177778</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>22</v>
@@ -22657,7 +22659,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>27</v>
@@ -22669,7 +22671,7 @@
         <v>0.76166670000000003</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>21</v>
@@ -22689,7 +22691,7 @@
         <v>0.2383333</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>22</v>
@@ -22709,7 +22711,7 @@
         <v>0.73222220000000005</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>21</v>
@@ -22729,7 +22731,7 @@
         <v>0.26777780000000001</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>22</v>
@@ -22749,7 +22751,7 @@
         <v>0.76666670000000003</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>21</v>
@@ -22769,7 +22771,7 @@
         <v>0.23333329999999999</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>22</v>
@@ -22789,7 +22791,7 @@
         <v>0.76333329999999999</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>21</v>
@@ -22809,7 +22811,7 @@
         <v>0.23666670000000001</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD23" s="2" t="s">
         <v>22</v>
@@ -22829,7 +22831,7 @@
         <v>0.80172410000000005</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD24" s="2" t="s">
         <v>21</v>
@@ -22849,7 +22851,7 @@
         <v>0.1982759</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>22</v>
@@ -22869,7 +22871,7 @@
         <v>0.61987179999999997</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD26" s="2" t="s">
         <v>21</v>
@@ -22889,7 +22891,7 @@
         <v>0.38012820000000003</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD27" s="2" t="s">
         <v>22</v>
@@ -22900,7 +22902,7 @@
     </row>
     <row r="28" spans="15:31" x14ac:dyDescent="0.3">
       <c r="AC28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD28" s="2" t="s">
         <v>21</v>
@@ -22911,7 +22913,7 @@
     </row>
     <row r="29" spans="15:31" x14ac:dyDescent="0.3">
       <c r="AC29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>22</v>
@@ -22922,7 +22924,7 @@
     </row>
     <row r="30" spans="15:31" x14ac:dyDescent="0.3">
       <c r="AC30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD30" s="2" t="s">
         <v>21</v>
@@ -22933,7 +22935,7 @@
     </row>
     <row r="31" spans="15:31" x14ac:dyDescent="0.3">
       <c r="AC31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD31" s="2" t="s">
         <v>22</v>
@@ -22944,7 +22946,7 @@
     </row>
     <row r="32" spans="15:31" x14ac:dyDescent="0.3">
       <c r="AC32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>21</v>
@@ -22955,7 +22957,7 @@
     </row>
     <row r="33" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>22</v>
@@ -22966,7 +22968,7 @@
     </row>
     <row r="34" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD34" s="2" t="s">
         <v>21</v>
@@ -22977,7 +22979,7 @@
     </row>
     <row r="35" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD35" s="2" t="s">
         <v>22</v>
@@ -22988,7 +22990,7 @@
     </row>
     <row r="36" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>21</v>
@@ -22999,7 +23001,7 @@
     </row>
     <row r="37" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>22</v>
@@ -23010,7 +23012,7 @@
     </row>
     <row r="38" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>21</v>
@@ -23021,7 +23023,7 @@
     </row>
     <row r="39" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>22</v>
@@ -23032,7 +23034,7 @@
     </row>
     <row r="40" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>21</v>
@@ -23043,7 +23045,7 @@
     </row>
     <row r="41" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD41" s="2" t="s">
         <v>22</v>
@@ -23054,7 +23056,7 @@
     </row>
     <row r="42" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD42" s="2" t="s">
         <v>21</v>
@@ -23065,7 +23067,7 @@
     </row>
     <row r="43" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD43" s="2" t="s">
         <v>22</v>
@@ -23076,7 +23078,7 @@
     </row>
     <row r="44" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD44" s="2" t="s">
         <v>21</v>
@@ -23087,7 +23089,7 @@
     </row>
     <row r="45" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>22</v>
@@ -23098,7 +23100,7 @@
     </row>
     <row r="46" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>21</v>
@@ -23109,7 +23111,7 @@
     </row>
     <row r="47" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD47" s="2" t="s">
         <v>22</v>
@@ -23120,7 +23122,7 @@
     </row>
     <row r="48" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD48" s="2" t="s">
         <v>21</v>
@@ -23131,7 +23133,7 @@
     </row>
     <row r="49" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD49" s="2" t="s">
         <v>22</v>
@@ -23142,7 +23144,7 @@
     </row>
     <row r="50" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD50" s="2" t="s">
         <v>21</v>
@@ -23153,7 +23155,7 @@
     </row>
     <row r="51" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD51" s="2" t="s">
         <v>22</v>
@@ -23164,7 +23166,7 @@
     </row>
     <row r="52" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD52" s="2" t="s">
         <v>21</v>
@@ -23175,7 +23177,7 @@
     </row>
     <row r="53" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD53" s="2" t="s">
         <v>22</v>
@@ -23186,7 +23188,7 @@
     </row>
     <row r="54" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD54" s="2" t="s">
         <v>21</v>
@@ -23197,7 +23199,7 @@
     </row>
     <row r="55" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD55" s="2" t="s">
         <v>22</v>
@@ -23208,7 +23210,7 @@
     </row>
     <row r="56" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD56" s="2" t="s">
         <v>21</v>
@@ -23219,7 +23221,7 @@
     </row>
     <row r="57" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD57" s="2" t="s">
         <v>22</v>
@@ -23230,7 +23232,7 @@
     </row>
     <row r="58" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD58" s="2" t="s">
         <v>21</v>
@@ -23241,7 +23243,7 @@
     </row>
     <row r="59" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD59" s="2" t="s">
         <v>22</v>
@@ -23252,7 +23254,7 @@
     </row>
     <row r="60" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD60" s="2" t="s">
         <v>21</v>
@@ -23263,7 +23265,7 @@
     </row>
     <row r="61" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD61" s="2" t="s">
         <v>22</v>
@@ -23274,7 +23276,7 @@
     </row>
     <row r="62" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD62" s="2" t="s">
         <v>21</v>
@@ -23285,7 +23287,7 @@
     </row>
     <row r="63" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD63" s="2" t="s">
         <v>22</v>
@@ -23296,7 +23298,7 @@
     </row>
     <row r="64" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC64" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD64" s="2" t="s">
         <v>21</v>
@@ -23307,7 +23309,7 @@
     </row>
     <row r="65" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC65" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD65" s="2" t="s">
         <v>22</v>
@@ -23318,7 +23320,7 @@
     </row>
     <row r="66" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC66" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD66" s="2" t="s">
         <v>21</v>
@@ -23329,7 +23331,7 @@
     </row>
     <row r="67" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD67" s="2" t="s">
         <v>22</v>
@@ -23340,7 +23342,7 @@
     </row>
     <row r="68" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD68" s="2" t="s">
         <v>21</v>
@@ -23351,7 +23353,7 @@
     </row>
     <row r="69" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD69" s="2" t="s">
         <v>22</v>
@@ -23362,7 +23364,7 @@
     </row>
     <row r="70" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD70" s="2" t="s">
         <v>21</v>
@@ -23373,7 +23375,7 @@
     </row>
     <row r="71" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD71" s="2" t="s">
         <v>22</v>
@@ -23384,7 +23386,7 @@
     </row>
     <row r="72" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC72" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD72" s="2" t="s">
         <v>21</v>
@@ -23395,7 +23397,7 @@
     </row>
     <row r="73" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD73" s="2" t="s">
         <v>22</v>
@@ -23406,7 +23408,7 @@
     </row>
     <row r="74" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD74" s="2" t="s">
         <v>21</v>
@@ -23417,7 +23419,7 @@
     </row>
     <row r="75" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD75" s="2" t="s">
         <v>22</v>
@@ -23428,7 +23430,7 @@
     </row>
     <row r="76" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD76" s="2" t="s">
         <v>21</v>
@@ -23439,7 +23441,7 @@
     </row>
     <row r="77" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD77" s="2" t="s">
         <v>22</v>
@@ -23450,7 +23452,7 @@
     </row>
     <row r="78" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC78" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD78" s="2" t="s">
         <v>21</v>
@@ -23461,7 +23463,7 @@
     </row>
     <row r="79" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC79" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD79" s="2" t="s">
         <v>22</v>
@@ -23472,7 +23474,7 @@
     </row>
     <row r="80" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC80" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD80" s="2" t="s">
         <v>21</v>
@@ -23483,7 +23485,7 @@
     </row>
     <row r="81" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC81" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD81" s="2" t="s">
         <v>22</v>
@@ -23494,7 +23496,7 @@
     </row>
     <row r="82" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD82" s="2" t="s">
         <v>21</v>
@@ -23505,7 +23507,7 @@
     </row>
     <row r="83" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD83" s="2" t="s">
         <v>22</v>
@@ -23516,7 +23518,7 @@
     </row>
     <row r="84" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC84" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD84" s="2" t="s">
         <v>21</v>
@@ -23527,7 +23529,7 @@
     </row>
     <row r="85" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC85" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD85" s="2" t="s">
         <v>22</v>
@@ -23538,7 +23540,7 @@
     </row>
     <row r="86" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD86" s="2" t="s">
         <v>21</v>
@@ -23549,7 +23551,7 @@
     </row>
     <row r="87" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC87" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD87" s="2" t="s">
         <v>22</v>
@@ -23560,7 +23562,7 @@
     </row>
     <row r="88" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD88" s="2" t="s">
         <v>21</v>
@@ -23571,7 +23573,7 @@
     </row>
     <row r="89" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD89" s="2" t="s">
         <v>22</v>
@@ -23582,7 +23584,7 @@
     </row>
     <row r="90" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC90" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD90" s="2" t="s">
         <v>21</v>
@@ -23593,7 +23595,7 @@
     </row>
     <row r="91" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC91" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD91" s="2" t="s">
         <v>22</v>
@@ -23604,7 +23606,7 @@
     </row>
     <row r="92" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC92" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD92" s="2" t="s">
         <v>21</v>
@@ -23615,7 +23617,7 @@
     </row>
     <row r="93" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD93" s="2" t="s">
         <v>22</v>
@@ -23626,7 +23628,7 @@
     </row>
     <row r="94" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD94" s="2" t="s">
         <v>21</v>
@@ -23637,7 +23639,7 @@
     </row>
     <row r="95" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD95" s="2" t="s">
         <v>22</v>
@@ -23648,7 +23650,7 @@
     </row>
     <row r="96" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD96" s="2" t="s">
         <v>21</v>
@@ -23659,7 +23661,7 @@
     </row>
     <row r="97" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD97" s="2" t="s">
         <v>22</v>
@@ -23670,7 +23672,7 @@
     </row>
     <row r="98" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD98" s="2" t="s">
         <v>21</v>
@@ -23681,7 +23683,7 @@
     </row>
     <row r="99" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD99" s="2" t="s">
         <v>22</v>
@@ -23692,7 +23694,7 @@
     </row>
     <row r="100" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD100" s="2" t="s">
         <v>21</v>
@@ -23703,7 +23705,7 @@
     </row>
     <row r="101" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC101" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD101" s="2" t="s">
         <v>22</v>
@@ -23714,7 +23716,7 @@
     </row>
     <row r="102" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC102" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD102" s="2" t="s">
         <v>21</v>
@@ -23725,7 +23727,7 @@
     </row>
     <row r="103" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC103" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD103" s="2" t="s">
         <v>22</v>
@@ -23736,7 +23738,7 @@
     </row>
     <row r="104" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC104" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD104" s="2" t="s">
         <v>21</v>
@@ -23747,7 +23749,7 @@
     </row>
     <row r="105" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD105" s="2" t="s">
         <v>22</v>
@@ -23758,7 +23760,7 @@
     </row>
     <row r="106" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD106" s="2" t="s">
         <v>21</v>
@@ -23769,7 +23771,7 @@
     </row>
     <row r="107" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC107" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD107" s="2" t="s">
         <v>22</v>
@@ -23780,7 +23782,7 @@
     </row>
     <row r="108" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC108" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD108" s="2" t="s">
         <v>21</v>
@@ -23791,7 +23793,7 @@
     </row>
     <row r="109" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC109" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD109" s="2" t="s">
         <v>22</v>
@@ -23802,7 +23804,7 @@
     </row>
     <row r="110" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC110" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD110" s="2" t="s">
         <v>21</v>
@@ -23813,7 +23815,7 @@
     </row>
     <row r="111" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC111" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD111" s="2" t="s">
         <v>22</v>
@@ -23824,7 +23826,7 @@
     </row>
     <row r="112" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC112" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD112" s="2" t="s">
         <v>21</v>
@@ -23835,7 +23837,7 @@
     </row>
     <row r="113" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC113" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD113" s="2" t="s">
         <v>22</v>
@@ -23846,7 +23848,7 @@
     </row>
     <row r="114" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC114" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD114" s="2" t="s">
         <v>21</v>
@@ -23857,7 +23859,7 @@
     </row>
     <row r="115" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC115" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD115" s="2" t="s">
         <v>22</v>
@@ -23868,7 +23870,7 @@
     </row>
     <row r="116" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC116" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD116" s="2" t="s">
         <v>21</v>
@@ -23879,7 +23881,7 @@
     </row>
     <row r="117" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC117" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD117" s="2" t="s">
         <v>22</v>
@@ -23890,7 +23892,7 @@
     </row>
     <row r="118" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC118" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD118" s="2" t="s">
         <v>21</v>
@@ -23901,7 +23903,7 @@
     </row>
     <row r="119" spans="29:31" x14ac:dyDescent="0.3">
       <c r="AC119" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD119" s="2" t="s">
         <v>22</v>
